--- a/documentation/NEP_Daten.xlsx
+++ b/documentation/NEP_Daten.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEP2035_confirmed" sheetId="2" r:id="rId1"/>
-    <sheet name="NEP2035_B2" sheetId="1" r:id="rId2"/>
-    <sheet name="Tabelle1" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="5" r:id="rId2"/>
+    <sheet name="Rückbau nach sql" sheetId="4" r:id="rId3"/>
+    <sheet name="NEP2035_B2" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="519">
   <si>
     <t>Startpunkt</t>
   </si>
@@ -1401,6 +1403,189 @@
   </si>
   <si>
     <t>Netzverstärkung:Neubau in bestehender Trasse</t>
+  </si>
+  <si>
+    <t>Netzverstärkung: Umbeseilung/Stromkreisauflage</t>
+  </si>
+  <si>
+    <t>220-kV-Leitung Lehrte – Hardegsen – Sandershausen</t>
+  </si>
+  <si>
+    <t>Ersatz 380</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000034491737E0272240077FDE21ED414B401C09D91E62FC21405F82AED8BA4C4B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000017CA504549312240342D73AE813C4B4034491737E0272240077FDE21ED414B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000A7EE25E88A4D22401313D4F02D214B407A84E4AE6F392240155D7237E32F4B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000001954FC7A67EC2140F817BC009A564B403D85B762DAFE21408E4DE1F725524B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000E9482465B4B821400F0985DA6C654B401954FC7A67EC2140F817BC009A564B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000007A84E4AE6F392240155D7237E32F4B4017CA504549312240342D73AE813C4B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000003D85B762DAFE21408E4DE1F725524B4029CDE67118FC21404F779E78CE4C4B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000564589B8733922401DE884E04BFA4A404AE93EA5EF3A224038E5C06158FA4A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000086123F927D202240BBB93B0FBB0A4B40010AE4C8B91F2240D8BF46EDD90A4B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000086123F927D202240BBB93B0FBB0A4B40010AE4C8B91F2240D8BF46EDD90A4B40'</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000076BF706BAF52A401C1252126D504A40B32781CD39042B40549F9A81804F4A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000D68ADB0D47E42940919F8D5C37484A4062C32EE5D76A2A404F475BF0FD564A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000015AA40D24C6C2A401BCE46F828574A40DF14FB7035872A4039883144A9594A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000B32781CD39042B40549F9A81804F4A407771C1D4596B2B40B98A9B0218454A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000008D2AC3B81B942A4061F3BBFAC2594A40076BF706BAF52A401C1252126D504A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000DF14FB7035872A4039883144A9594A408D2AC3B81B942A4061F3BBFAC2594A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000012EEDF06C6EB2B406713BB1171A04A405D8DEC4ACB102C4036B39602D2C04A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000005414F93FD10E2140935A28999CED484061BBC50D09312140B4999E0B7EF94840',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000E1D80EA1A58E2140DD572FD0FFFB4840BDF20F11ED5D21400F1DF11AAAF84840',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000061BBC50D09312140B4999E0B7EF948401DE90C8CBC582140ED63AA059BF84840',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000FC51D890878022403562D7B7A58E4A40E318C91EA14622401DEA77616B6C4A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000E318C91EA14622401DEA77616B6C4A409DA223B9FC372240E964A9F57E454A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000007657D17A53B42740AFEBBC32148C4A40795FF0C4075D2840126A865451E84A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000E6E37F97BE4427400D40FE2D5C224A40E59F747D7AC327409EB0694A578A4A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000032E884D041E71C40E37B35F6DBAC4A40DECCE847C31920408A58C4B0C3AA4A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000003014B01D8C2820408ACF9D60FF6D4A402B2BF290CE19204048AAEFFCA2AA4A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000000E6C9560714823400A151C5E102D4B40BA6B09F9A0072340F14C689258304B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000004AA4236F6F752340126C5CFFAE254B400E6C9560714823400A151C5E102D4B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000BA6B09F9A0072340F14C689258304B409FACBDF49BA2224083B5204A6A5B4B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000005B3DCC03FDFA2340EC34D25279E24A4069458AB7841224400992D2C7D7E64A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000069458AB7841224400992D2C7D7E64A40706C2C17E0452540DFCFDF3AB5F54A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000004AE93EA5EF3A224038E5C06158FA4A401FCC37EC08592240E12E562F1AF54A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000004B1A48BCE1332240139D6516A1FD4A404AE93EA5EF3A224038E5C06158FA4A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000006000868A162D2240C7AEA3607C004B404B1A48BCE1332240139D6516A1FD4A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000030CE29125D152240AFC623021F0B4B406000868A162D2240C7AEA3607C004B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000EB1AD24D071B22408A624DC00A154B4030CE29125D152240AFC623021F0B4B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000061862E3E62C523409CDBB9E8EB264840730C6DA57C812340EFD34C52F4D24740',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000D00F4E47BD642240209E89FCDB744840AA3AE6B2C6D922403AF0978F3F084840',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000003A84E0A7606F22400880E0E0C1014B406000868A162D2240C7AEA3607C004B40',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000030CE29125D152240AFC623021F0B4B40010AE4C8B91F2240D8BF46EDD90A4B40'</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000007E025765387423408D1F37484D254B4054D1B3B4AEF82340A26C25CF50E24A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000001FCC37EC08592240E12E562F1AF54A405FE68585A460224085BB0E304EF44A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000051AAD8F3908022404323D8B8FE8E4A4030890EDCDCFF2240FD2E1114E4C54A40',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000001438FC94EA0023401A05EEF07AC54A404E3338A517142340F0CE90E0FCC74A40'</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000E958EF8167402640E435AFEAAC7F49402459D130C6952840550B36BFAB954940',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000002279420AF917284002767F06E56549409F63F668601A284007E28629DB644940',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000E53FEE6CD91728409FFA511E27664940909F32A3C49F2940B8D507ED306E4940',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000E53FEE6CD91728409FFA511E276649402279420AF917284002767F06E5654940',</t>
+  </si>
+  <si>
+    <t>'0102000020E610000002000000FFBD2A26F24A2740D0D751D97644494084369435454F27400BC50C439A444940',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000084369435454F27400BC50C439A44494096BABFD595162840C3082B5FE1654940',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000002459D130C6952840550B36BFAB95494053D0ED258DA128406FA296E656984940',</t>
+  </si>
+  <si>
+    <t>'0102000020E6100000020000002279420AF917284002767F06E565494096BABFD595162840C3082B5FE1654940',</t>
+  </si>
+  <si>
+    <t>'0102000020E61000000200000096BABFD595162840C3082B5FE1654940E53FEE6CD91728409FFA511E27664940'</t>
+  </si>
+  <si>
+    <t>line_id in model_draft (neue Daten!)</t>
+  </si>
+  <si>
+    <t>Anzahl Kabel Rückbau</t>
+  </si>
+  <si>
+    <t>Anzahl Kabel installiert</t>
+  </si>
+  <si>
+    <t>geom</t>
+  </si>
+  <si>
+    <t>NOCH MEHR?</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1484,6 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1800,14 +1986,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="25.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
@@ -1867,6 +2054,9 @@
       <c r="G2" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="H2" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="I2" s="8" t="s">
         <v>149</v>
       </c>
@@ -2015,6 +2205,10 @@
       <c r="E7" t="s">
         <v>227</v>
       </c>
+      <c r="F7">
+        <f xml:space="preserve"> 4*1790*1.5</f>
+        <v>10740</v>
+      </c>
       <c r="G7" t="s">
         <v>151</v>
       </c>
@@ -2025,7 +2219,7 @@
         <v>150</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>460</v>
       </c>
       <c r="L7" t="s">
         <v>442</v>
@@ -2047,6 +2241,10 @@
       <c r="E8" t="s">
         <v>227</v>
       </c>
+      <c r="F8">
+        <f xml:space="preserve"> 4*1790*1.5</f>
+        <v>10740</v>
+      </c>
       <c r="G8" t="s">
         <v>151</v>
       </c>
@@ -2057,7 +2255,7 @@
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2304,9 +2502,6 @@
       <c r="I16" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>447</v>
-      </c>
       <c r="K16" s="8">
         <v>3</v>
       </c>
@@ -2429,7 +2624,7 @@
       <c r="I20" t="s">
         <v>150</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="3" t="s">
         <v>438</v>
       </c>
     </row>
@@ -2455,7 +2650,7 @@
       <c r="I21" t="s">
         <v>150</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="3" t="s">
         <v>438</v>
       </c>
     </row>
@@ -2481,7 +2676,7 @@
       <c r="I22" t="s">
         <v>150</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>438</v>
       </c>
     </row>
@@ -2507,7 +2702,7 @@
       <c r="I23" t="s">
         <v>150</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>438</v>
       </c>
     </row>
@@ -2975,6 +3170,9 @@
       <c r="E41" s="8" t="s">
         <v>227</v>
       </c>
+      <c r="F41" s="5">
+        <v>3580</v>
+      </c>
       <c r="G41" s="8" t="s">
         <v>151</v>
       </c>
@@ -2986,6 +3184,9 @@
       </c>
       <c r="J41" s="8" t="s">
         <v>438</v>
+      </c>
+      <c r="K41" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3001,6 +3202,9 @@
       <c r="E42" s="8" t="s">
         <v>227</v>
       </c>
+      <c r="F42" s="5">
+        <v>3580</v>
+      </c>
       <c r="G42" s="8" t="s">
         <v>151</v>
       </c>
@@ -3012,6 +3216,9 @@
       </c>
       <c r="J42" s="8" t="s">
         <v>450</v>
+      </c>
+      <c r="K42" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3059,6 +3266,9 @@
       <c r="E44" s="8" t="s">
         <v>227</v>
       </c>
+      <c r="F44" s="5">
+        <v>3580</v>
+      </c>
       <c r="G44" s="8" t="s">
         <v>151</v>
       </c>
@@ -3071,8 +3281,8 @@
       <c r="J44" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="K44" s="8" t="s">
-        <v>449</v>
+      <c r="K44" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3088,6 +3298,9 @@
       <c r="E45" s="8" t="s">
         <v>227</v>
       </c>
+      <c r="F45" s="5">
+        <v>3580</v>
+      </c>
       <c r="G45" s="8" t="s">
         <v>151</v>
       </c>
@@ -3099,6 +3312,9 @@
       </c>
       <c r="J45" s="8" t="s">
         <v>438</v>
+      </c>
+      <c r="K45" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3114,6 +3330,9 @@
       <c r="E46" s="8" t="s">
         <v>227</v>
       </c>
+      <c r="F46" s="5">
+        <v>3580</v>
+      </c>
       <c r="G46" s="8" t="s">
         <v>151</v>
       </c>
@@ -3125,6 +3344,9 @@
       </c>
       <c r="J46" s="8" t="s">
         <v>438</v>
+      </c>
+      <c r="K46" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3143,6 +3365,9 @@
       <c r="E47" t="s">
         <v>227</v>
       </c>
+      <c r="F47">
+        <v>2000</v>
+      </c>
       <c r="G47" t="s">
         <v>146</v>
       </c>
@@ -3169,6 +3394,9 @@
       <c r="E48" t="s">
         <v>227</v>
       </c>
+      <c r="F48">
+        <v>2000</v>
+      </c>
       <c r="G48" t="s">
         <v>146</v>
       </c>
@@ -4055,7 +4283,7 @@
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="6" t="s">
         <v>290</v>
       </c>
       <c r="D79" t="s">
@@ -4189,8 +4417,11 @@
       <c r="H83" t="s">
         <v>147</v>
       </c>
-      <c r="I83" t="s">
-        <v>149</v>
+      <c r="I83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -4215,8 +4446,11 @@
       <c r="H84" t="s">
         <v>147</v>
       </c>
-      <c r="I84" t="s">
-        <v>149</v>
+      <c r="I84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -4241,8 +4475,11 @@
       <c r="H85" t="s">
         <v>147</v>
       </c>
-      <c r="I85" t="s">
-        <v>149</v>
+      <c r="I85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J85" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -4267,8 +4504,11 @@
       <c r="H86" t="s">
         <v>147</v>
       </c>
-      <c r="I86" t="s">
-        <v>149</v>
+      <c r="I86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -4293,8 +4533,8 @@
       <c r="H87" t="s">
         <v>147</v>
       </c>
-      <c r="I87" t="s">
-        <v>149</v>
+      <c r="I87" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4320,7 +4560,13 @@
         <v>147</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>150</v>
+        <v>458</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="L88" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4346,7 +4592,13 @@
         <v>147</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>150</v>
+        <v>458</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="L89" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5461,7 +5713,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>230</v>
       </c>
@@ -5493,7 +5745,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>231</v>
       </c>
@@ -5522,7 +5774,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>231</v>
       </c>
@@ -5551,7 +5803,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>231</v>
       </c>
@@ -5580,7 +5832,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>231</v>
       </c>
@@ -5609,7 +5861,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>231</v>
       </c>
@@ -5638,7 +5890,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>232</v>
       </c>
@@ -5664,10 +5916,10 @@
         <v>375</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>232</v>
       </c>
@@ -5693,10 +5945,10 @@
         <v>375</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>232</v>
       </c>
@@ -5722,10 +5974,10 @@
         <v>375</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>232</v>
       </c>
@@ -5751,10 +6003,10 @@
         <v>375</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>232</v>
       </c>
@@ -5780,10 +6032,10 @@
         <v>375</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>232</v>
       </c>
@@ -5809,10 +6061,10 @@
         <v>375</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>232</v>
       </c>
@@ -5838,10 +6090,10 @@
         <v>375</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>232</v>
       </c>
@@ -5867,10 +6119,10 @@
         <v>375</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>233</v>
       </c>
@@ -5886,6 +6138,9 @@
       <c r="E143" t="s">
         <v>227</v>
       </c>
+      <c r="F143">
+        <v>1790</v>
+      </c>
       <c r="G143" t="s">
         <v>151</v>
       </c>
@@ -5893,10 +6148,16 @@
         <v>375</v>
       </c>
       <c r="I143" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J143" t="s">
+        <v>459</v>
+      </c>
+      <c r="K143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>233</v>
       </c>
@@ -5912,6 +6173,9 @@
       <c r="E144" t="s">
         <v>227</v>
       </c>
+      <c r="F144">
+        <v>1790</v>
+      </c>
       <c r="G144" t="s">
         <v>151</v>
       </c>
@@ -5919,7 +6183,10 @@
         <v>375</v>
       </c>
       <c r="I144" t="s">
-        <v>149</v>
+        <v>24</v>
+      </c>
+      <c r="K144">
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -5938,6 +6205,9 @@
       <c r="E145" t="s">
         <v>227</v>
       </c>
+      <c r="F145">
+        <v>1790</v>
+      </c>
       <c r="G145" t="s">
         <v>151</v>
       </c>
@@ -5945,7 +6215,10 @@
         <v>375</v>
       </c>
       <c r="I145" t="s">
-        <v>149</v>
+        <v>24</v>
+      </c>
+      <c r="K145">
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -5964,6 +6237,9 @@
       <c r="E146" t="s">
         <v>227</v>
       </c>
+      <c r="F146">
+        <v>1790</v>
+      </c>
       <c r="G146" t="s">
         <v>151</v>
       </c>
@@ -5971,7 +6247,10 @@
         <v>375</v>
       </c>
       <c r="I146" t="s">
-        <v>149</v>
+        <v>24</v>
+      </c>
+      <c r="K146">
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6098,6 +6377,4338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28585F76-BCF3-40C6-8B89-D289A263DD09}">
+  <dimension ref="A1:I187"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2">
+        <v>220</v>
+      </c>
+      <c r="E2">
+        <v>520</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3">
+        <v>220</v>
+      </c>
+      <c r="E3">
+        <v>520</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>11194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4">
+        <v>220</v>
+      </c>
+      <c r="E4">
+        <v>520</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5">
+        <v>380</v>
+      </c>
+      <c r="E5">
+        <v>1790</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6">
+        <v>380</v>
+      </c>
+      <c r="E6">
+        <v>1790</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7">
+        <v>380</v>
+      </c>
+      <c r="E7">
+        <v>1790</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8">
+        <v>380</v>
+      </c>
+      <c r="E8">
+        <v>1790</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9">
+        <v>380</v>
+      </c>
+      <c r="E9">
+        <v>1790</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10">
+        <v>380</v>
+      </c>
+      <c r="E10">
+        <v>1790</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11">
+        <v>380</v>
+      </c>
+      <c r="E11">
+        <v>1790</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12">
+        <v>380</v>
+      </c>
+      <c r="E12">
+        <v>1790</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13">
+        <v>380</v>
+      </c>
+      <c r="E13">
+        <v>1790</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14">
+        <v>380</v>
+      </c>
+      <c r="E14">
+        <v>1790</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15">
+        <v>380</v>
+      </c>
+      <c r="E15">
+        <v>1790</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16">
+        <v>380</v>
+      </c>
+      <c r="E16">
+        <v>1790</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17">
+        <v>380</v>
+      </c>
+      <c r="E17">
+        <v>1790</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18">
+        <v>380</v>
+      </c>
+      <c r="E18">
+        <v>1790</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>12727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19">
+        <v>380</v>
+      </c>
+      <c r="E19">
+        <v>1790</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>12624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20">
+        <v>380</v>
+      </c>
+      <c r="E20">
+        <v>1790</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>5894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21">
+        <v>380</v>
+      </c>
+      <c r="E21">
+        <v>1790</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22">
+        <v>380</v>
+      </c>
+      <c r="E22">
+        <v>1790</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23">
+        <v>380</v>
+      </c>
+      <c r="E23">
+        <v>1790</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24">
+        <v>380</v>
+      </c>
+      <c r="E24">
+        <v>1790</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D25">
+        <v>220</v>
+      </c>
+      <c r="E25">
+        <v>520</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>23917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D26">
+        <v>220</v>
+      </c>
+      <c r="E26">
+        <v>520</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>23692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D27">
+        <v>220</v>
+      </c>
+      <c r="E27">
+        <v>520</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D28">
+        <v>220</v>
+      </c>
+      <c r="E28">
+        <v>1040</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>6278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D29">
+        <v>220</v>
+      </c>
+      <c r="E29">
+        <v>520</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>18593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D30">
+        <v>220</v>
+      </c>
+      <c r="E30">
+        <v>1040</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>23585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D31">
+        <v>220</v>
+      </c>
+      <c r="E31">
+        <v>520</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D32">
+        <v>220</v>
+      </c>
+      <c r="E32">
+        <v>520</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>8324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D33">
+        <v>220</v>
+      </c>
+      <c r="E33">
+        <v>520</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>8307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D34">
+        <v>220</v>
+      </c>
+      <c r="E34">
+        <v>520</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35">
+        <v>220</v>
+      </c>
+      <c r="E35">
+        <v>520</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36">
+        <v>220</v>
+      </c>
+      <c r="E36">
+        <v>520</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>8305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D37">
+        <v>220</v>
+      </c>
+      <c r="E37">
+        <v>520</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38">
+        <v>220</v>
+      </c>
+      <c r="E38">
+        <v>520</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39">
+        <v>220</v>
+      </c>
+      <c r="E39">
+        <v>520</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D40">
+        <v>220</v>
+      </c>
+      <c r="E40">
+        <v>520</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41">
+        <v>220</v>
+      </c>
+      <c r="E41">
+        <v>520</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D42">
+        <v>220</v>
+      </c>
+      <c r="E42">
+        <v>520</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>13028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D43">
+        <v>220</v>
+      </c>
+      <c r="E43">
+        <v>520</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>6432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D44">
+        <v>220</v>
+      </c>
+      <c r="E44">
+        <v>520</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45">
+        <v>220</v>
+      </c>
+      <c r="E45">
+        <v>520</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D46">
+        <v>220</v>
+      </c>
+      <c r="E46">
+        <v>520</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D47">
+        <v>220</v>
+      </c>
+      <c r="E47">
+        <v>520</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>6243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D48">
+        <v>220</v>
+      </c>
+      <c r="E48">
+        <v>520</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>13145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D49">
+        <v>220</v>
+      </c>
+      <c r="E49">
+        <v>520</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>13023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D50">
+        <v>220</v>
+      </c>
+      <c r="E50">
+        <v>520</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>6431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51">
+        <v>220</v>
+      </c>
+      <c r="E51">
+        <v>520</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>6437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D52">
+        <v>220</v>
+      </c>
+      <c r="E52">
+        <v>520</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>6438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D53">
+        <v>220</v>
+      </c>
+      <c r="E53">
+        <v>520</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>13037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D54">
+        <v>220</v>
+      </c>
+      <c r="E54">
+        <v>520</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>13024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55">
+        <v>220</v>
+      </c>
+      <c r="E55">
+        <v>520</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D56">
+        <v>220</v>
+      </c>
+      <c r="E56">
+        <v>520</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>13025</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D57">
+        <v>220</v>
+      </c>
+      <c r="E57">
+        <v>520</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>5597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D58">
+        <v>220</v>
+      </c>
+      <c r="E58">
+        <v>520</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>12562</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D59">
+        <v>220</v>
+      </c>
+      <c r="E59">
+        <v>520</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>5847</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D60">
+        <v>220</v>
+      </c>
+      <c r="E60">
+        <v>520</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>12564</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D61">
+        <v>220</v>
+      </c>
+      <c r="E61">
+        <v>520</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D62">
+        <v>220</v>
+      </c>
+      <c r="E62">
+        <v>520</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D63">
+        <v>220</v>
+      </c>
+      <c r="E63">
+        <v>520</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>12045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D64">
+        <v>220</v>
+      </c>
+      <c r="E64">
+        <v>520</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+      <c r="H64">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D65">
+        <v>220</v>
+      </c>
+      <c r="E65">
+        <v>520</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D66">
+        <v>220</v>
+      </c>
+      <c r="E66">
+        <v>520</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D67">
+        <v>220</v>
+      </c>
+      <c r="E67">
+        <v>520</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+      <c r="H67">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68">
+        <v>220</v>
+      </c>
+      <c r="E68">
+        <v>520</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69">
+        <v>220</v>
+      </c>
+      <c r="E69">
+        <v>520</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>12056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D70">
+        <v>220</v>
+      </c>
+      <c r="E70">
+        <v>1040</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D71">
+        <v>220</v>
+      </c>
+      <c r="E71">
+        <v>1040</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D72">
+        <v>220</v>
+      </c>
+      <c r="E72">
+        <v>520</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>12994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D73">
+        <v>220</v>
+      </c>
+      <c r="E73">
+        <v>520</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>22205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D74">
+        <v>220</v>
+      </c>
+      <c r="E74">
+        <v>520</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>22206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D75">
+        <v>220</v>
+      </c>
+      <c r="E75">
+        <v>520</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+      <c r="H75">
+        <v>7436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D76">
+        <v>220</v>
+      </c>
+      <c r="E76">
+        <v>520</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>13794</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77">
+        <v>220</v>
+      </c>
+      <c r="E77">
+        <v>520</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>7593</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D78">
+        <v>220</v>
+      </c>
+      <c r="E78">
+        <v>520</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>6</v>
+      </c>
+      <c r="H78">
+        <v>7594</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D79">
+        <v>220</v>
+      </c>
+      <c r="E79">
+        <v>520</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D80">
+        <v>220</v>
+      </c>
+      <c r="E80">
+        <v>520</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
+      </c>
+      <c r="H80">
+        <v>7591</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D81">
+        <v>220</v>
+      </c>
+      <c r="E81">
+        <v>520</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>7592</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D82">
+        <v>220</v>
+      </c>
+      <c r="E82">
+        <v>520</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83">
+        <v>220</v>
+      </c>
+      <c r="E83">
+        <v>520</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>12701</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D84">
+        <v>220</v>
+      </c>
+      <c r="E84">
+        <v>520</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>5557</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D85">
+        <v>220</v>
+      </c>
+      <c r="E85">
+        <v>520</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85">
+        <v>6</v>
+      </c>
+      <c r="H85">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D86">
+        <v>220</v>
+      </c>
+      <c r="E86">
+        <v>520</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D87">
+        <v>220</v>
+      </c>
+      <c r="E87">
+        <v>520</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>12699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D88">
+        <v>110</v>
+      </c>
+      <c r="E88">
+        <v>260</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88">
+        <v>6</v>
+      </c>
+      <c r="H88">
+        <v>7779</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89">
+        <v>110</v>
+      </c>
+      <c r="E89">
+        <v>260</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>7778</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D90">
+        <v>110</v>
+      </c>
+      <c r="E90">
+        <v>260</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <v>6</v>
+      </c>
+      <c r="H90">
+        <v>13887</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D91">
+        <v>110</v>
+      </c>
+      <c r="E91">
+        <v>260</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D92">
+        <v>110</v>
+      </c>
+      <c r="E92">
+        <v>260</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+      <c r="G92">
+        <v>6</v>
+      </c>
+      <c r="H92">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D93">
+        <v>110</v>
+      </c>
+      <c r="E93">
+        <v>260</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93">
+        <v>6</v>
+      </c>
+      <c r="H93">
+        <v>13497</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D94">
+        <v>110</v>
+      </c>
+      <c r="E94">
+        <v>260</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+      <c r="G94">
+        <v>6</v>
+      </c>
+      <c r="H94">
+        <v>7221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D95">
+        <v>110</v>
+      </c>
+      <c r="E95">
+        <v>260</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+      <c r="G95">
+        <v>6</v>
+      </c>
+      <c r="H95">
+        <v>7073</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96">
+        <v>110</v>
+      </c>
+      <c r="E96">
+        <v>260</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D97">
+        <v>110</v>
+      </c>
+      <c r="E97">
+        <v>520</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>15095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98">
+        <v>110</v>
+      </c>
+      <c r="E98">
+        <v>520</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>19369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D99">
+        <v>110</v>
+      </c>
+      <c r="E99">
+        <v>520</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>19355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D100">
+        <v>110</v>
+      </c>
+      <c r="E100">
+        <v>520</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>19352</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D101">
+        <v>110</v>
+      </c>
+      <c r="E101">
+        <v>520</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>18944</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D102">
+        <v>110</v>
+      </c>
+      <c r="E102">
+        <v>520</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>18264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D103">
+        <v>110</v>
+      </c>
+      <c r="E103">
+        <v>520</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>15128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D104">
+        <v>110</v>
+      </c>
+      <c r="E104">
+        <v>520</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>15126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D105">
+        <v>110</v>
+      </c>
+      <c r="E105">
+        <v>260</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>15736</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D106">
+        <v>110</v>
+      </c>
+      <c r="E106">
+        <v>260</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>17528</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D107">
+        <v>110</v>
+      </c>
+      <c r="E107">
+        <v>260</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>14359</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D108">
+        <v>110</v>
+      </c>
+      <c r="E108">
+        <v>260</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>14361</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D109">
+        <v>110</v>
+      </c>
+      <c r="E109">
+        <v>520</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>18905</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D110">
+        <v>110</v>
+      </c>
+      <c r="E110">
+        <v>260</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>7351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D111">
+        <v>110</v>
+      </c>
+      <c r="E111">
+        <v>260</v>
+      </c>
+      <c r="F111">
+        <v>6</v>
+      </c>
+      <c r="G111">
+        <v>6</v>
+      </c>
+      <c r="H111">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D112">
+        <v>110</v>
+      </c>
+      <c r="E112">
+        <v>260</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>23001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D113">
+        <v>220</v>
+      </c>
+      <c r="E113">
+        <v>520</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D114">
+        <v>220</v>
+      </c>
+      <c r="E114">
+        <v>520</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>19777</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D115">
+        <v>220</v>
+      </c>
+      <c r="E115">
+        <v>520</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+      <c r="G115">
+        <v>6</v>
+      </c>
+      <c r="H115">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D116">
+        <v>220</v>
+      </c>
+      <c r="E116">
+        <v>520</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
+      <c r="G116">
+        <v>6</v>
+      </c>
+      <c r="H116">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D117">
+        <v>220</v>
+      </c>
+      <c r="E117">
+        <v>520</v>
+      </c>
+      <c r="F117">
+        <v>6</v>
+      </c>
+      <c r="G117">
+        <v>6</v>
+      </c>
+      <c r="H117">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D118">
+        <v>220</v>
+      </c>
+      <c r="E118">
+        <v>520</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D119">
+        <v>220</v>
+      </c>
+      <c r="E119">
+        <v>520</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>23011</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D120">
+        <v>220</v>
+      </c>
+      <c r="E120">
+        <v>520</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>6996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D121">
+        <v>220</v>
+      </c>
+      <c r="E121">
+        <v>520</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>13597</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D122">
+        <v>220</v>
+      </c>
+      <c r="E122">
+        <v>520</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+      <c r="G122">
+        <v>6</v>
+      </c>
+      <c r="H122">
+        <v>7336</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D123">
+        <v>220</v>
+      </c>
+      <c r="E123">
+        <v>520</v>
+      </c>
+      <c r="F123">
+        <v>6</v>
+      </c>
+      <c r="G123">
+        <v>6</v>
+      </c>
+      <c r="H123">
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D124">
+        <v>220</v>
+      </c>
+      <c r="E124">
+        <v>520</v>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124">
+        <v>6</v>
+      </c>
+      <c r="H124">
+        <v>7334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D125">
+        <v>220</v>
+      </c>
+      <c r="E125">
+        <v>520</v>
+      </c>
+      <c r="F125">
+        <v>6</v>
+      </c>
+      <c r="G125">
+        <v>6</v>
+      </c>
+      <c r="H125">
+        <v>7335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D126">
+        <v>220</v>
+      </c>
+      <c r="E126">
+        <v>520</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>6997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D127">
+        <v>220</v>
+      </c>
+      <c r="E127">
+        <v>520</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127">
+        <v>13598</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D128">
+        <v>220</v>
+      </c>
+      <c r="E128">
+        <v>1040</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D129">
+        <v>220</v>
+      </c>
+      <c r="E129">
+        <v>1040</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D130">
+        <v>220</v>
+      </c>
+      <c r="E130">
+        <v>1040</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D131">
+        <v>220</v>
+      </c>
+      <c r="E131">
+        <v>520</v>
+      </c>
+      <c r="F131">
+        <v>6</v>
+      </c>
+      <c r="G131">
+        <v>6</v>
+      </c>
+      <c r="H131">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D132">
+        <v>220</v>
+      </c>
+      <c r="E132">
+        <v>520</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>8633</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D133">
+        <v>220</v>
+      </c>
+      <c r="E133">
+        <v>520</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D134">
+        <v>220</v>
+      </c>
+      <c r="E134">
+        <v>520</v>
+      </c>
+      <c r="F134">
+        <v>6</v>
+      </c>
+      <c r="G134">
+        <v>6</v>
+      </c>
+      <c r="H134">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D135">
+        <v>220</v>
+      </c>
+      <c r="E135">
+        <v>520</v>
+      </c>
+      <c r="F135">
+        <v>6</v>
+      </c>
+      <c r="G135">
+        <v>6</v>
+      </c>
+      <c r="H135">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D136">
+        <v>220</v>
+      </c>
+      <c r="E136">
+        <v>520</v>
+      </c>
+      <c r="F136">
+        <v>6</v>
+      </c>
+      <c r="G136">
+        <v>6</v>
+      </c>
+      <c r="H136">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137">
+        <v>220</v>
+      </c>
+      <c r="E137">
+        <v>1040</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+      <c r="H137">
+        <v>8661</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D138">
+        <v>220</v>
+      </c>
+      <c r="E138">
+        <v>520</v>
+      </c>
+      <c r="F138">
+        <v>6</v>
+      </c>
+      <c r="G138">
+        <v>6</v>
+      </c>
+      <c r="H138">
+        <v>2373</v>
+      </c>
+      <c r="I138" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D139">
+        <v>220</v>
+      </c>
+      <c r="E139">
+        <v>520</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
+        <v>8194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D140">
+        <v>220</v>
+      </c>
+      <c r="E140">
+        <v>520</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+      <c r="H140">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D141">
+        <v>220</v>
+      </c>
+      <c r="E141">
+        <v>520</v>
+      </c>
+      <c r="F141">
+        <v>6</v>
+      </c>
+      <c r="G141">
+        <v>6</v>
+      </c>
+      <c r="H141">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D142">
+        <v>220</v>
+      </c>
+      <c r="E142">
+        <v>520</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
+        <v>8421</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D143">
+        <v>220</v>
+      </c>
+      <c r="E143">
+        <v>520</v>
+      </c>
+      <c r="F143">
+        <v>6</v>
+      </c>
+      <c r="G143">
+        <v>6</v>
+      </c>
+      <c r="H143">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D144">
+        <v>220</v>
+      </c>
+      <c r="E144">
+        <v>520</v>
+      </c>
+      <c r="F144">
+        <v>6</v>
+      </c>
+      <c r="G144">
+        <v>6</v>
+      </c>
+      <c r="H144">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D145">
+        <v>220</v>
+      </c>
+      <c r="E145">
+        <v>520</v>
+      </c>
+      <c r="F145">
+        <v>6</v>
+      </c>
+      <c r="G145">
+        <v>6</v>
+      </c>
+      <c r="H145">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D146">
+        <v>220</v>
+      </c>
+      <c r="E146">
+        <v>520</v>
+      </c>
+      <c r="F146">
+        <v>6</v>
+      </c>
+      <c r="G146">
+        <v>6</v>
+      </c>
+      <c r="H146">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D147">
+        <v>220</v>
+      </c>
+      <c r="E147">
+        <v>520</v>
+      </c>
+      <c r="F147">
+        <v>6</v>
+      </c>
+      <c r="G147">
+        <v>6</v>
+      </c>
+      <c r="H147">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D148">
+        <v>220</v>
+      </c>
+      <c r="E148">
+        <v>520</v>
+      </c>
+      <c r="F148">
+        <v>6</v>
+      </c>
+      <c r="G148">
+        <v>6</v>
+      </c>
+      <c r="H148">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D149">
+        <v>220</v>
+      </c>
+      <c r="E149">
+        <v>520</v>
+      </c>
+      <c r="F149">
+        <v>6</v>
+      </c>
+      <c r="G149">
+        <v>6</v>
+      </c>
+      <c r="H149">
+        <v>9213</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D150">
+        <v>220</v>
+      </c>
+      <c r="E150">
+        <v>520</v>
+      </c>
+      <c r="F150">
+        <v>6</v>
+      </c>
+      <c r="G150">
+        <v>6</v>
+      </c>
+      <c r="H150">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D151">
+        <v>220</v>
+      </c>
+      <c r="E151">
+        <v>520</v>
+      </c>
+      <c r="F151">
+        <v>6</v>
+      </c>
+      <c r="G151">
+        <v>6</v>
+      </c>
+      <c r="H151">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D152">
+        <v>220</v>
+      </c>
+      <c r="E152">
+        <v>520</v>
+      </c>
+      <c r="F152">
+        <v>6</v>
+      </c>
+      <c r="G152">
+        <v>6</v>
+      </c>
+      <c r="H152">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D153">
+        <v>220</v>
+      </c>
+      <c r="E153">
+        <v>520</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
+        <v>21968</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D154">
+        <v>220</v>
+      </c>
+      <c r="E154">
+        <v>520</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>21967</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D155">
+        <v>220</v>
+      </c>
+      <c r="E155">
+        <v>520</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+      <c r="H155">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D156">
+        <v>220</v>
+      </c>
+      <c r="E156">
+        <v>520</v>
+      </c>
+      <c r="F156">
+        <v>6</v>
+      </c>
+      <c r="G156">
+        <v>6</v>
+      </c>
+      <c r="H156">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D157">
+        <v>220</v>
+      </c>
+      <c r="E157">
+        <v>520</v>
+      </c>
+      <c r="F157">
+        <v>6</v>
+      </c>
+      <c r="G157">
+        <v>6</v>
+      </c>
+      <c r="H157">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D158">
+        <v>220</v>
+      </c>
+      <c r="E158">
+        <v>520</v>
+      </c>
+      <c r="F158">
+        <v>3</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D159">
+        <v>220</v>
+      </c>
+      <c r="E159">
+        <v>520</v>
+      </c>
+      <c r="F159">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+      <c r="H159">
+        <v>9222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D160">
+        <v>220</v>
+      </c>
+      <c r="E160">
+        <v>520</v>
+      </c>
+      <c r="F160">
+        <v>3</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
+        <v>23327</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D161">
+        <v>220</v>
+      </c>
+      <c r="E161">
+        <v>520</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+      <c r="H161">
+        <v>23334</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D162">
+        <v>220</v>
+      </c>
+      <c r="E162">
+        <v>520</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162">
+        <v>23410</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D163">
+        <v>220</v>
+      </c>
+      <c r="E163">
+        <v>520</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>22273</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D164">
+        <v>220</v>
+      </c>
+      <c r="E164">
+        <v>520</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>22274</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D165">
+        <v>220</v>
+      </c>
+      <c r="E165">
+        <v>520</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165">
+        <v>6</v>
+      </c>
+      <c r="H165">
+        <v>7297</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D166">
+        <v>220</v>
+      </c>
+      <c r="E166">
+        <v>520</v>
+      </c>
+      <c r="F166">
+        <v>3</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D167">
+        <v>220</v>
+      </c>
+      <c r="E167">
+        <v>520</v>
+      </c>
+      <c r="F167">
+        <v>3</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D168">
+        <v>220</v>
+      </c>
+      <c r="E168">
+        <v>520</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168">
+        <v>6</v>
+      </c>
+      <c r="H168">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D169">
+        <v>220</v>
+      </c>
+      <c r="E169">
+        <v>520</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169">
+        <v>6</v>
+      </c>
+      <c r="H169">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D170">
+        <v>220</v>
+      </c>
+      <c r="E170">
+        <v>520</v>
+      </c>
+      <c r="F170">
+        <v>6</v>
+      </c>
+      <c r="G170">
+        <v>6</v>
+      </c>
+      <c r="H170">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D171">
+        <v>220</v>
+      </c>
+      <c r="E171">
+        <v>520</v>
+      </c>
+      <c r="F171">
+        <v>6</v>
+      </c>
+      <c r="G171">
+        <v>6</v>
+      </c>
+      <c r="H171">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D172">
+        <v>220</v>
+      </c>
+      <c r="E172">
+        <v>520</v>
+      </c>
+      <c r="F172">
+        <v>12</v>
+      </c>
+      <c r="G172">
+        <v>6</v>
+      </c>
+      <c r="H172">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D173">
+        <v>220</v>
+      </c>
+      <c r="E173">
+        <v>520</v>
+      </c>
+      <c r="F173">
+        <v>3</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
+      </c>
+      <c r="H173">
+        <v>18342</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D174">
+        <v>220</v>
+      </c>
+      <c r="E174">
+        <v>520</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
+      </c>
+      <c r="G174">
+        <v>3</v>
+      </c>
+      <c r="H174">
+        <v>19969</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D175">
+        <v>220</v>
+      </c>
+      <c r="E175">
+        <v>520</v>
+      </c>
+      <c r="F175">
+        <v>6</v>
+      </c>
+      <c r="G175">
+        <v>6</v>
+      </c>
+      <c r="H175">
+        <v>14994</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D176">
+        <v>220</v>
+      </c>
+      <c r="E176">
+        <v>520</v>
+      </c>
+      <c r="F176">
+        <v>3</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+      <c r="H176">
+        <v>11207</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D177">
+        <v>220</v>
+      </c>
+      <c r="E177">
+        <v>520</v>
+      </c>
+      <c r="F177">
+        <v>3</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D178">
+        <v>220</v>
+      </c>
+      <c r="E178">
+        <v>520</v>
+      </c>
+      <c r="F178">
+        <v>6</v>
+      </c>
+      <c r="G178">
+        <v>6</v>
+      </c>
+      <c r="H178">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D179">
+        <v>220</v>
+      </c>
+      <c r="E179">
+        <v>520</v>
+      </c>
+      <c r="F179">
+        <v>6</v>
+      </c>
+      <c r="G179">
+        <v>6</v>
+      </c>
+      <c r="H179">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D180">
+        <v>220</v>
+      </c>
+      <c r="E180">
+        <v>520</v>
+      </c>
+      <c r="F180">
+        <v>6</v>
+      </c>
+      <c r="G180">
+        <v>6</v>
+      </c>
+      <c r="H180">
+        <v>11193</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D181">
+        <v>220</v>
+      </c>
+      <c r="E181">
+        <v>520</v>
+      </c>
+      <c r="F181">
+        <v>6</v>
+      </c>
+      <c r="G181">
+        <v>6</v>
+      </c>
+      <c r="H181">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D182">
+        <v>220</v>
+      </c>
+      <c r="E182">
+        <v>520</v>
+      </c>
+      <c r="F182">
+        <v>6</v>
+      </c>
+      <c r="G182">
+        <v>6</v>
+      </c>
+      <c r="H182">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D183">
+        <v>220</v>
+      </c>
+      <c r="E183">
+        <v>520</v>
+      </c>
+      <c r="F183">
+        <v>3</v>
+      </c>
+      <c r="G183">
+        <v>3</v>
+      </c>
+      <c r="H183">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D184">
+        <v>220</v>
+      </c>
+      <c r="E184">
+        <v>520</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
+      </c>
+      <c r="G184">
+        <v>3</v>
+      </c>
+      <c r="H184">
+        <v>18542</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D185">
+        <v>220</v>
+      </c>
+      <c r="E185">
+        <v>520</v>
+      </c>
+      <c r="F185">
+        <v>6</v>
+      </c>
+      <c r="G185">
+        <v>6</v>
+      </c>
+      <c r="H185">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D186">
+        <v>220</v>
+      </c>
+      <c r="E186">
+        <v>520</v>
+      </c>
+      <c r="F186">
+        <v>6</v>
+      </c>
+      <c r="G186">
+        <v>6</v>
+      </c>
+      <c r="H186">
+        <v>12011</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D187">
+        <v>220</v>
+      </c>
+      <c r="E187">
+        <v>520</v>
+      </c>
+      <c r="F187">
+        <v>6</v>
+      </c>
+      <c r="G187">
+        <v>6</v>
+      </c>
+      <c r="H187">
+        <v>4874</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B14B99-0789-4B0D-8CE1-10B97AD5D1B4}">
+  <dimension ref="A1:L56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>110</v>
+      </c>
+      <c r="F2">
+        <v>260</v>
+      </c>
+      <c r="L2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>110</v>
+      </c>
+      <c r="F3">
+        <v>260</v>
+      </c>
+      <c r="L3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>110</v>
+      </c>
+      <c r="F4">
+        <v>260</v>
+      </c>
+      <c r="L4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>110</v>
+      </c>
+      <c r="F5">
+        <v>260</v>
+      </c>
+      <c r="L5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>110</v>
+      </c>
+      <c r="F6">
+        <v>260</v>
+      </c>
+      <c r="L6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>110</v>
+      </c>
+      <c r="F7">
+        <v>260</v>
+      </c>
+      <c r="L7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <v>260</v>
+      </c>
+      <c r="L8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>110</v>
+      </c>
+      <c r="F9">
+        <v>260</v>
+      </c>
+      <c r="L9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <v>260</v>
+      </c>
+      <c r="L10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>110</v>
+      </c>
+      <c r="F11">
+        <v>260</v>
+      </c>
+      <c r="L11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>110</v>
+      </c>
+      <c r="F12">
+        <v>260</v>
+      </c>
+      <c r="L12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>520</v>
+      </c>
+      <c r="L13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>520</v>
+      </c>
+      <c r="L14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>520</v>
+      </c>
+      <c r="L15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>520</v>
+      </c>
+      <c r="L16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>520</v>
+      </c>
+      <c r="L17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>520</v>
+      </c>
+      <c r="L18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>520</v>
+      </c>
+      <c r="L19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>520</v>
+      </c>
+      <c r="L20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>520</v>
+      </c>
+      <c r="L21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>520</v>
+      </c>
+      <c r="L22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>520</v>
+      </c>
+      <c r="L23" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>520</v>
+      </c>
+      <c r="L24" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>520</v>
+      </c>
+      <c r="L25" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>520</v>
+      </c>
+      <c r="L26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>520</v>
+      </c>
+      <c r="L27" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>520</v>
+      </c>
+      <c r="L28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>520</v>
+      </c>
+      <c r="L29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>520</v>
+      </c>
+      <c r="L30" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>520</v>
+      </c>
+      <c r="L31" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>520</v>
+      </c>
+      <c r="L32" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>520</v>
+      </c>
+      <c r="L33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>520</v>
+      </c>
+      <c r="L34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>520</v>
+      </c>
+      <c r="L35" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>520</v>
+      </c>
+      <c r="L36" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>520</v>
+      </c>
+      <c r="L37" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>520</v>
+      </c>
+      <c r="L38" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>520</v>
+      </c>
+      <c r="L39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>520</v>
+      </c>
+      <c r="L40" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>520</v>
+      </c>
+      <c r="L41" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>520</v>
+      </c>
+      <c r="L42" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>520</v>
+      </c>
+      <c r="L43" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>220</v>
+      </c>
+      <c r="F44">
+        <v>1040</v>
+      </c>
+      <c r="L44" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>220</v>
+      </c>
+      <c r="F45">
+        <v>1040</v>
+      </c>
+      <c r="L45" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>220</v>
+      </c>
+      <c r="F46">
+        <v>1040</v>
+      </c>
+      <c r="L46" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>220</v>
+      </c>
+      <c r="F47">
+        <v>1040</v>
+      </c>
+      <c r="L47" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>380</v>
+      </c>
+      <c r="F48">
+        <v>1790</v>
+      </c>
+      <c r="L48" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>380</v>
+      </c>
+      <c r="F49">
+        <v>1790</v>
+      </c>
+      <c r="L49" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>380</v>
+      </c>
+      <c r="F50">
+        <v>1790</v>
+      </c>
+      <c r="L50" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>380</v>
+      </c>
+      <c r="F51">
+        <v>1790</v>
+      </c>
+      <c r="L51" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>380</v>
+      </c>
+      <c r="F52">
+        <v>1790</v>
+      </c>
+      <c r="L52" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>380</v>
+      </c>
+      <c r="F53">
+        <v>1790</v>
+      </c>
+      <c r="L53" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>380</v>
+      </c>
+      <c r="F54">
+        <v>1790</v>
+      </c>
+      <c r="L54" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>380</v>
+      </c>
+      <c r="F55">
+        <v>1790</v>
+      </c>
+      <c r="L55" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>380</v>
+      </c>
+      <c r="F56">
+        <v>1790</v>
+      </c>
+      <c r="L56" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K97"/>
   <sheetViews>
@@ -8329,7 +12940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E99F367-9E3C-4BFE-A924-503CD3F55A89}">
   <dimension ref="A1:K53"/>
   <sheetViews>

--- a/documentation/NEP_Daten.xlsx
+++ b/documentation/NEP_Daten.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="520">
   <si>
     <t>Startpunkt</t>
   </si>
@@ -1586,6 +1586,9 @@
   </si>
   <si>
     <t>NOCH MEHR?</t>
+  </si>
+  <si>
+    <t>decommissioning_NEP</t>
   </si>
 </sst>
 </file>
@@ -6378,3763 +6381,4324 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28585F76-BCF3-40C6-8B89-D289A263DD09}">
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D2">
-        <v>220</v>
-      </c>
       <c r="E2">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G2">
         <v>6</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
         <v>3995</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D3">
-        <v>220</v>
-      </c>
       <c r="E3">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
         <v>11194</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D4">
-        <v>220</v>
-      </c>
       <c r="E4">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
         <v>3994</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>380</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1790</v>
       </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
       <c r="G5">
         <v>6</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
         <v>1795</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>380</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1790</v>
       </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
       <c r="G6">
         <v>6</v>
       </c>
       <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
         <v>1805</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>380</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1790</v>
       </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>1803</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>380</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1790</v>
       </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
         <v>1802</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>380</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1790</v>
       </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
       <c r="G9">
         <v>6</v>
       </c>
       <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
         <v>1799</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>380</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1790</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>12</v>
       </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
       <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
         <v>1797</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>380</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1790</v>
       </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
         <v>1796</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>380</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1790</v>
       </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
       <c r="G12">
         <v>6</v>
       </c>
       <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>380</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1790</v>
       </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
         <v>1801</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>519</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>380</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1790</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
         <v>678</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>380</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1790</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>8150</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>519</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>380</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1790</v>
       </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
         <v>5978</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>380</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1790</v>
       </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
         <v>5979</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>380</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1790</v>
       </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
         <v>12727</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>519</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>380</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1790</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
         <v>12624</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>519</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>380</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1790</v>
       </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
         <v>5894</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>519</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>380</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1790</v>
       </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
       <c r="G21">
         <v>6</v>
       </c>
       <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
         <v>5529</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>519</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>380</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1790</v>
       </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
       <c r="G22">
         <v>6</v>
       </c>
       <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
         <v>5893</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>519</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>380</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1790</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
         <v>5532</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>519</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>380</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1790</v>
       </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
         <v>12627</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>519</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D25">
-        <v>220</v>
-      </c>
       <c r="E25">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
         <v>23917</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>519</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D26">
-        <v>220</v>
-      </c>
       <c r="E26">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
         <v>23692</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>519</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D27">
-        <v>220</v>
-      </c>
       <c r="E27">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G27">
         <v>6</v>
       </c>
       <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
         <v>2002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>519</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D28">
-        <v>220</v>
-      </c>
       <c r="E28">
+        <v>220</v>
+      </c>
+      <c r="F28">
         <v>1040</v>
       </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
         <v>6278</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>519</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D29">
-        <v>220</v>
-      </c>
       <c r="E29">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
         <v>18593</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>519</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D30">
-        <v>220</v>
-      </c>
       <c r="E30">
+        <v>220</v>
+      </c>
+      <c r="F30">
         <v>1040</v>
       </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
         <v>23585</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>519</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D31">
-        <v>220</v>
-      </c>
       <c r="E31">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
         <v>1940</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>519</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D32">
-        <v>220</v>
-      </c>
       <c r="E32">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
         <v>8324</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>519</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D33">
-        <v>220</v>
-      </c>
       <c r="E33">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G33">
         <v>6</v>
       </c>
       <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
         <v>8307</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>519</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D34">
-        <v>220</v>
-      </c>
       <c r="E34">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G34">
         <v>6</v>
       </c>
       <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
         <v>1930</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>519</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D35">
-        <v>220</v>
-      </c>
       <c r="E35">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G35">
         <v>6</v>
       </c>
       <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
         <v>1928</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>519</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D36">
-        <v>220</v>
-      </c>
       <c r="E36">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G36">
         <v>6</v>
       </c>
       <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
         <v>8305</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>519</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D37">
-        <v>220</v>
-      </c>
       <c r="E37">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
       <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
         <v>1941</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>519</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D38">
-        <v>220</v>
-      </c>
       <c r="E38">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G38">
         <v>6</v>
       </c>
       <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
         <v>1929</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>519</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D39">
-        <v>220</v>
-      </c>
       <c r="E39">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
         <v>1942</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>519</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D40">
-        <v>220</v>
-      </c>
       <c r="E40">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
         <v>1927</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>519</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D41">
-        <v>220</v>
-      </c>
       <c r="E41">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
       <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
         <v>6246</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>519</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D42">
-        <v>220</v>
-      </c>
       <c r="E42">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
         <v>13028</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>519</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D43">
-        <v>220</v>
-      </c>
       <c r="E43">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G43">
         <v>6</v>
       </c>
       <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
         <v>6432</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D44">
-        <v>220</v>
-      </c>
       <c r="E44">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>520</v>
       </c>
       <c r="G44">
         <v>12</v>
       </c>
       <c r="H44">
+        <v>12</v>
+      </c>
+      <c r="I44">
         <v>6439</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>519</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D45">
-        <v>220</v>
-      </c>
       <c r="E45">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
         <v>6575</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>519</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D46">
-        <v>220</v>
-      </c>
       <c r="E46">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G46">
         <v>6</v>
       </c>
       <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
         <v>6244</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>519</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D47">
-        <v>220</v>
-      </c>
       <c r="E47">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G47">
         <v>6</v>
       </c>
       <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
         <v>6243</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>519</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D48">
-        <v>220</v>
-      </c>
       <c r="E48">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
         <v>13145</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>519</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D49">
-        <v>220</v>
-      </c>
       <c r="E49">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
         <v>13023</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>519</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D50">
-        <v>220</v>
-      </c>
       <c r="E50">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>520</v>
       </c>
       <c r="G50">
         <v>12</v>
       </c>
       <c r="H50">
+        <v>12</v>
+      </c>
+      <c r="I50">
         <v>6431</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>519</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D51">
-        <v>220</v>
-      </c>
       <c r="E51">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G51">
         <v>6</v>
       </c>
       <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
         <v>6437</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>519</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D52">
-        <v>220</v>
-      </c>
       <c r="E52">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
       <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
         <v>6438</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>519</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D53">
-        <v>220</v>
-      </c>
       <c r="E53">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
       <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
         <v>13037</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>519</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D54">
-        <v>220</v>
-      </c>
       <c r="E54">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G54">
         <v>3</v>
       </c>
       <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
         <v>13024</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>519</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D55">
-        <v>220</v>
-      </c>
       <c r="E55">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G55">
         <v>6</v>
       </c>
       <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55">
         <v>6440</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>519</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D56">
-        <v>220</v>
-      </c>
       <c r="E56">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G56">
         <v>6</v>
       </c>
       <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
         <v>13025</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>519</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D57">
-        <v>220</v>
-      </c>
       <c r="E57">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
         <v>5597</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>519</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D58">
-        <v>220</v>
-      </c>
       <c r="E58">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G58">
         <v>3</v>
       </c>
       <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>12562</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>519</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D59">
-        <v>220</v>
-      </c>
       <c r="E59">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G59">
         <v>6</v>
       </c>
       <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
         <v>5847</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>519</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D60">
-        <v>220</v>
-      </c>
       <c r="E60">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G60">
         <v>3</v>
       </c>
       <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
         <v>12564</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>519</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D61">
-        <v>220</v>
-      </c>
       <c r="E61">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G61">
         <v>3</v>
       </c>
       <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
         <v>5791</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>519</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D62">
-        <v>220</v>
-      </c>
       <c r="E62">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G62">
         <v>3</v>
       </c>
       <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
         <v>4996</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>519</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D63">
-        <v>220</v>
-      </c>
       <c r="E63">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G63">
         <v>3</v>
       </c>
       <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
         <v>12045</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>519</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D64">
-        <v>220</v>
-      </c>
       <c r="E64">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G64">
         <v>6</v>
       </c>
       <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
         <v>5065</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>519</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D65">
-        <v>220</v>
-      </c>
       <c r="E65">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G65">
         <v>6</v>
       </c>
       <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
         <v>4997</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>519</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D66">
-        <v>220</v>
-      </c>
       <c r="E66">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G66">
         <v>6</v>
       </c>
       <c r="H66">
+        <v>6</v>
+      </c>
+      <c r="I66">
         <v>4999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>519</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D67">
-        <v>220</v>
-      </c>
       <c r="E67">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F67">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G67">
         <v>6</v>
       </c>
       <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
         <v>5050</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>519</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D68">
-        <v>220</v>
-      </c>
       <c r="E68">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G68">
         <v>3</v>
       </c>
       <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
         <v>5000</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>519</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D69">
-        <v>220</v>
-      </c>
       <c r="E69">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G69">
         <v>3</v>
       </c>
       <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
         <v>12056</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>519</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D70">
-        <v>220</v>
-      </c>
       <c r="E70">
+        <v>220</v>
+      </c>
+      <c r="F70">
         <v>1040</v>
       </c>
-      <c r="F70">
-        <v>3</v>
-      </c>
       <c r="G70">
         <v>3</v>
       </c>
       <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
         <v>6403</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>519</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D71">
-        <v>220</v>
-      </c>
       <c r="E71">
+        <v>220</v>
+      </c>
+      <c r="F71">
         <v>1040</v>
       </c>
-      <c r="F71">
-        <v>3</v>
-      </c>
       <c r="G71">
         <v>3</v>
       </c>
       <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
         <v>6362</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>519</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D72">
-        <v>220</v>
-      </c>
       <c r="E72">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G72">
         <v>3</v>
       </c>
       <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
         <v>12994</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>519</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D73">
-        <v>220</v>
-      </c>
       <c r="E73">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
         <v>22205</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>519</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D74">
-        <v>220</v>
-      </c>
       <c r="E74">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
         <v>22206</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>519</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D75">
-        <v>220</v>
-      </c>
       <c r="E75">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G75">
         <v>6</v>
       </c>
       <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75">
         <v>7436</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>519</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D76">
-        <v>220</v>
-      </c>
       <c r="E76">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G76">
         <v>3</v>
       </c>
       <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
         <v>13794</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>519</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D77">
-        <v>220</v>
-      </c>
       <c r="E77">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G77">
         <v>3</v>
       </c>
       <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
         <v>7593</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>519</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D78">
-        <v>220</v>
-      </c>
       <c r="E78">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G78">
         <v>6</v>
       </c>
       <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
         <v>7594</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>519</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D79">
-        <v>220</v>
-      </c>
       <c r="E79">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F79">
+        <v>520</v>
+      </c>
+      <c r="G79">
         <v>9</v>
       </c>
-      <c r="G79">
-        <v>6</v>
-      </c>
       <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
         <v>7590</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>519</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D80">
-        <v>220</v>
-      </c>
       <c r="E80">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G80">
         <v>6</v>
       </c>
       <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
         <v>7591</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>519</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D81">
-        <v>220</v>
-      </c>
       <c r="E81">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G81">
         <v>3</v>
       </c>
       <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
         <v>7592</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>519</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D82">
-        <v>220</v>
-      </c>
       <c r="E82">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G82">
         <v>3</v>
       </c>
       <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
         <v>13790</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>519</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D83">
-        <v>220</v>
-      </c>
       <c r="E83">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G83">
         <v>3</v>
       </c>
       <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
         <v>12701</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>519</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D84">
-        <v>220</v>
-      </c>
       <c r="E84">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G84">
         <v>3</v>
       </c>
       <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
         <v>5557</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>519</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D85">
-        <v>220</v>
-      </c>
       <c r="E85">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G85">
         <v>6</v>
       </c>
       <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
         <v>5947</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>519</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D86">
-        <v>220</v>
-      </c>
       <c r="E86">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G86">
         <v>3</v>
       </c>
       <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
         <v>5556</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>519</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D87">
-        <v>220</v>
-      </c>
       <c r="E87">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G87">
         <v>3</v>
       </c>
       <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
         <v>12699</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>519</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>110</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>260</v>
       </c>
-      <c r="F88">
-        <v>6</v>
-      </c>
       <c r="G88">
         <v>6</v>
       </c>
       <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
         <v>7779</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>519</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>110</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>260</v>
       </c>
-      <c r="F89">
-        <v>6</v>
-      </c>
       <c r="G89">
         <v>6</v>
       </c>
       <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
         <v>7778</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>519</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>110</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>260</v>
       </c>
-      <c r="F90">
-        <v>6</v>
-      </c>
       <c r="G90">
         <v>6</v>
       </c>
       <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
         <v>13887</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>519</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>110</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>260</v>
       </c>
-      <c r="F91">
-        <v>6</v>
-      </c>
       <c r="G91">
         <v>6</v>
       </c>
       <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
         <v>5291</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>519</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>110</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>260</v>
       </c>
-      <c r="F92">
-        <v>6</v>
-      </c>
       <c r="G92">
         <v>6</v>
       </c>
       <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
         <v>5292</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>519</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>110</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>260</v>
       </c>
-      <c r="F93">
-        <v>6</v>
-      </c>
       <c r="G93">
         <v>6</v>
       </c>
       <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
         <v>13497</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>519</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>110</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>260</v>
       </c>
-      <c r="F94">
-        <v>6</v>
-      </c>
       <c r="G94">
         <v>6</v>
       </c>
       <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
         <v>7221</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>519</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>110</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>260</v>
       </c>
-      <c r="F95">
-        <v>6</v>
-      </c>
       <c r="G95">
         <v>6</v>
       </c>
       <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
         <v>7073</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>519</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>110</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>260</v>
       </c>
-      <c r="F96">
-        <v>6</v>
-      </c>
       <c r="G96">
         <v>6</v>
       </c>
       <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
         <v>7219</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>519</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>110</v>
       </c>
-      <c r="E97">
-        <v>520</v>
-      </c>
       <c r="F97">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G97">
         <v>3</v>
       </c>
       <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
         <v>15095</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>519</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>110</v>
       </c>
-      <c r="E98">
-        <v>520</v>
-      </c>
       <c r="F98">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G98">
         <v>3</v>
       </c>
       <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
         <v>19369</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>519</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>110</v>
       </c>
-      <c r="E99">
-        <v>520</v>
-      </c>
       <c r="F99">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G99">
         <v>3</v>
       </c>
       <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
         <v>19355</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>519</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>110</v>
       </c>
-      <c r="E100">
-        <v>520</v>
-      </c>
       <c r="F100">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G100">
         <v>3</v>
       </c>
       <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
         <v>19352</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>519</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>110</v>
       </c>
-      <c r="E101">
-        <v>520</v>
-      </c>
       <c r="F101">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G101">
         <v>3</v>
       </c>
       <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
         <v>18944</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>519</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>110</v>
       </c>
-      <c r="E102">
-        <v>520</v>
-      </c>
       <c r="F102">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G102">
         <v>3</v>
       </c>
       <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
         <v>18264</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>519</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>110</v>
       </c>
-      <c r="E103">
-        <v>520</v>
-      </c>
       <c r="F103">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G103">
         <v>3</v>
       </c>
       <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
         <v>15128</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>519</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>110</v>
       </c>
-      <c r="E104">
-        <v>520</v>
-      </c>
       <c r="F104">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G104">
         <v>3</v>
       </c>
       <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
         <v>15126</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>519</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>110</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>260</v>
       </c>
-      <c r="F105">
-        <v>3</v>
-      </c>
       <c r="G105">
         <v>3</v>
       </c>
       <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
         <v>15736</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>519</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>110</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>260</v>
       </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
       <c r="G106">
         <v>3</v>
       </c>
       <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106">
         <v>17528</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>519</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>110</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>260</v>
       </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
       <c r="G107">
         <v>3</v>
       </c>
       <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107">
         <v>14359</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>519</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>110</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>260</v>
       </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
       <c r="G108">
         <v>3</v>
       </c>
       <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="I108">
         <v>14361</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>519</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>110</v>
       </c>
-      <c r="E109">
-        <v>520</v>
-      </c>
       <c r="F109">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G109">
         <v>3</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
         <v>18905</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>519</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>110</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>260</v>
       </c>
-      <c r="F110">
-        <v>3</v>
-      </c>
       <c r="G110">
         <v>3</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>7351</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>519</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>110</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>260</v>
       </c>
-      <c r="F111">
-        <v>6</v>
-      </c>
       <c r="G111">
         <v>6</v>
       </c>
       <c r="H111">
+        <v>6</v>
+      </c>
+      <c r="I111">
         <v>7350</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>519</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>110</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>260</v>
       </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
       <c r="G112">
         <v>3</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
         <v>23001</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>519</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D113">
-        <v>220</v>
-      </c>
       <c r="E113">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G113">
         <v>3</v>
       </c>
       <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
         <v>742</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>519</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D114">
-        <v>220</v>
-      </c>
       <c r="E114">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G114">
         <v>3</v>
       </c>
       <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
         <v>19777</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>519</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D115">
-        <v>220</v>
-      </c>
       <c r="E115">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F115">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G115">
         <v>6</v>
       </c>
       <c r="H115">
+        <v>6</v>
+      </c>
+      <c r="I115">
         <v>749</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>519</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D116">
-        <v>220</v>
-      </c>
       <c r="E116">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F116">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G116">
         <v>6</v>
       </c>
       <c r="H116">
+        <v>6</v>
+      </c>
+      <c r="I116">
         <v>753</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>519</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D117">
-        <v>220</v>
-      </c>
       <c r="E117">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F117">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G117">
         <v>6</v>
       </c>
       <c r="H117">
+        <v>6</v>
+      </c>
+      <c r="I117">
         <v>752</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>519</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D118">
-        <v>220</v>
-      </c>
       <c r="E118">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G118">
         <v>3</v>
       </c>
       <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118">
         <v>754</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>519</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D119">
-        <v>220</v>
-      </c>
       <c r="E119">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G119">
         <v>3</v>
       </c>
       <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
         <v>23011</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>519</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D120">
-        <v>220</v>
-      </c>
       <c r="E120">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G120">
         <v>3</v>
       </c>
       <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
         <v>6996</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>519</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D121">
-        <v>220</v>
-      </c>
       <c r="E121">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F121">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G121">
         <v>3</v>
       </c>
       <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
         <v>13597</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>519</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D122">
-        <v>220</v>
-      </c>
       <c r="E122">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F122">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G122">
         <v>6</v>
       </c>
       <c r="H122">
+        <v>6</v>
+      </c>
+      <c r="I122">
         <v>7336</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>519</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D123">
-        <v>220</v>
-      </c>
       <c r="E123">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F123">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G123">
         <v>6</v>
       </c>
       <c r="H123">
+        <v>6</v>
+      </c>
+      <c r="I123">
         <v>7333</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>519</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D124">
-        <v>220</v>
-      </c>
       <c r="E124">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F124">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G124">
         <v>6</v>
       </c>
       <c r="H124">
+        <v>6</v>
+      </c>
+      <c r="I124">
         <v>7334</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>519</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D125">
-        <v>220</v>
-      </c>
       <c r="E125">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F125">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G125">
         <v>6</v>
       </c>
       <c r="H125">
+        <v>6</v>
+      </c>
+      <c r="I125">
         <v>7335</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>519</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D126">
-        <v>220</v>
-      </c>
       <c r="E126">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F126">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G126">
         <v>3</v>
       </c>
       <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126">
         <v>6997</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>519</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D127">
-        <v>220</v>
-      </c>
       <c r="E127">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F127">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G127">
         <v>3</v>
       </c>
       <c r="H127">
+        <v>3</v>
+      </c>
+      <c r="I127">
         <v>13598</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>519</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D128">
-        <v>220</v>
-      </c>
       <c r="E128">
+        <v>220</v>
+      </c>
+      <c r="F128">
         <v>1040</v>
       </c>
-      <c r="F128">
-        <v>3</v>
-      </c>
       <c r="G128">
         <v>3</v>
       </c>
       <c r="H128">
+        <v>3</v>
+      </c>
+      <c r="I128">
         <v>2213</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>519</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D129">
-        <v>220</v>
-      </c>
       <c r="E129">
+        <v>220</v>
+      </c>
+      <c r="F129">
         <v>1040</v>
       </c>
-      <c r="F129">
-        <v>3</v>
-      </c>
       <c r="G129">
         <v>3</v>
       </c>
       <c r="H129">
+        <v>3</v>
+      </c>
+      <c r="I129">
         <v>2212</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>519</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D130">
-        <v>220</v>
-      </c>
       <c r="E130">
+        <v>220</v>
+      </c>
+      <c r="F130">
         <v>1040</v>
       </c>
-      <c r="F130">
-        <v>3</v>
-      </c>
       <c r="G130">
         <v>3</v>
       </c>
       <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130">
         <v>2214</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>519</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D131">
-        <v>220</v>
-      </c>
       <c r="E131">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F131">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G131">
         <v>6</v>
       </c>
       <c r="H131">
+        <v>6</v>
+      </c>
+      <c r="I131">
         <v>2262</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>519</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D132">
-        <v>220</v>
-      </c>
       <c r="E132">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F132">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G132">
         <v>3</v>
       </c>
       <c r="H132">
+        <v>3</v>
+      </c>
+      <c r="I132">
         <v>8633</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>519</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D133">
-        <v>220</v>
-      </c>
       <c r="E133">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F133">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G133">
         <v>3</v>
       </c>
       <c r="H133">
+        <v>3</v>
+      </c>
+      <c r="I133">
         <v>2261</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>519</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D134">
-        <v>220</v>
-      </c>
       <c r="E134">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F134">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G134">
         <v>6</v>
       </c>
       <c r="H134">
+        <v>6</v>
+      </c>
+      <c r="I134">
         <v>2268</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>519</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D135">
-        <v>220</v>
-      </c>
       <c r="E135">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F135">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G135">
         <v>6</v>
       </c>
       <c r="H135">
+        <v>6</v>
+      </c>
+      <c r="I135">
         <v>2264</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>519</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D136">
-        <v>220</v>
-      </c>
       <c r="E136">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F136">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G136">
         <v>6</v>
       </c>
       <c r="H136">
+        <v>6</v>
+      </c>
+      <c r="I136">
         <v>2265</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>519</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D137">
-        <v>220</v>
-      </c>
       <c r="E137">
+        <v>220</v>
+      </c>
+      <c r="F137">
         <v>1040</v>
       </c>
-      <c r="F137">
-        <v>3</v>
-      </c>
       <c r="G137">
         <v>3</v>
       </c>
       <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
         <v>8661</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>519</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D138">
-        <v>220</v>
-      </c>
       <c r="E138">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F138">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G138">
         <v>6</v>
       </c>
       <c r="H138">
+        <v>6</v>
+      </c>
+      <c r="I138">
         <v>2373</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>519</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D139">
-        <v>220</v>
-      </c>
       <c r="E139">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F139">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G139">
         <v>3</v>
       </c>
       <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139">
         <v>8194</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>519</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D140">
-        <v>220</v>
-      </c>
       <c r="E140">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F140">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G140">
         <v>3</v>
       </c>
       <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140">
         <v>1846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>519</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D141">
-        <v>220</v>
-      </c>
       <c r="E141">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F141">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G141">
         <v>6</v>
       </c>
       <c r="H141">
+        <v>6</v>
+      </c>
+      <c r="I141">
         <v>1853</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>519</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D142">
-        <v>220</v>
-      </c>
       <c r="E142">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F142">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G142">
         <v>3</v>
       </c>
       <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
         <v>8421</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>519</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D143">
-        <v>220</v>
-      </c>
       <c r="E143">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F143">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G143">
         <v>6</v>
       </c>
       <c r="H143">
+        <v>6</v>
+      </c>
+      <c r="I143">
         <v>2037</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>519</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D144">
-        <v>220</v>
-      </c>
       <c r="E144">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F144">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G144">
         <v>6</v>
       </c>
       <c r="H144">
+        <v>6</v>
+      </c>
+      <c r="I144">
         <v>2041</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>519</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D145">
-        <v>220</v>
-      </c>
       <c r="E145">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F145">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G145">
         <v>6</v>
       </c>
       <c r="H145">
+        <v>6</v>
+      </c>
+      <c r="I145">
         <v>2040</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>519</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D146">
-        <v>220</v>
-      </c>
       <c r="E146">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F146">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G146">
         <v>6</v>
       </c>
       <c r="H146">
+        <v>6</v>
+      </c>
+      <c r="I146">
         <v>2038</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>519</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D147">
-        <v>220</v>
-      </c>
       <c r="E147">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F147">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G147">
         <v>6</v>
       </c>
       <c r="H147">
+        <v>6</v>
+      </c>
+      <c r="I147">
         <v>2039</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>519</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D148">
-        <v>220</v>
-      </c>
       <c r="E148">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F148">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G148">
         <v>6</v>
       </c>
       <c r="H148">
+        <v>6</v>
+      </c>
+      <c r="I148">
         <v>3120</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>519</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D149">
-        <v>220</v>
-      </c>
       <c r="E149">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F149">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G149">
         <v>6</v>
       </c>
       <c r="H149">
+        <v>6</v>
+      </c>
+      <c r="I149">
         <v>9213</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>519</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D150">
-        <v>220</v>
-      </c>
       <c r="E150">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F150">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G150">
         <v>6</v>
       </c>
       <c r="H150">
+        <v>6</v>
+      </c>
+      <c r="I150">
         <v>1028</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>519</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D151">
-        <v>220</v>
-      </c>
       <c r="E151">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F151">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G151">
         <v>6</v>
       </c>
       <c r="H151">
+        <v>6</v>
+      </c>
+      <c r="I151">
         <v>1025</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>519</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D152">
-        <v>220</v>
-      </c>
       <c r="E152">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F152">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G152">
         <v>6</v>
       </c>
       <c r="H152">
+        <v>6</v>
+      </c>
+      <c r="I152">
         <v>1030</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>519</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D153">
-        <v>220</v>
-      </c>
       <c r="E153">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F153">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G153">
         <v>3</v>
       </c>
       <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
         <v>21968</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>519</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D154">
-        <v>220</v>
-      </c>
       <c r="E154">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F154">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G154">
         <v>3</v>
       </c>
       <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
         <v>21967</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>519</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D155">
-        <v>220</v>
-      </c>
       <c r="E155">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F155">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G155">
         <v>3</v>
       </c>
       <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155">
         <v>1029</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>519</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D156">
-        <v>220</v>
-      </c>
       <c r="E156">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F156">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G156">
         <v>6</v>
       </c>
       <c r="H156">
+        <v>6</v>
+      </c>
+      <c r="I156">
         <v>448</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>519</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D157">
-        <v>220</v>
-      </c>
       <c r="E157">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F157">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G157">
         <v>6</v>
       </c>
       <c r="H157">
+        <v>6</v>
+      </c>
+      <c r="I157">
         <v>1034</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>519</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D158">
-        <v>220</v>
-      </c>
       <c r="E158">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F158">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G158">
         <v>3</v>
       </c>
       <c r="H158">
+        <v>3</v>
+      </c>
+      <c r="I158">
         <v>1033</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>519</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D159">
-        <v>220</v>
-      </c>
       <c r="E159">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F159">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G159">
         <v>3</v>
       </c>
       <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159">
         <v>9222</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>519</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D160">
-        <v>220</v>
-      </c>
       <c r="E160">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F160">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G160">
         <v>3</v>
       </c>
       <c r="H160">
+        <v>3</v>
+      </c>
+      <c r="I160">
         <v>23327</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>519</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D161">
-        <v>220</v>
-      </c>
       <c r="E161">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F161">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G161">
         <v>3</v>
       </c>
       <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161">
         <v>23334</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>519</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D162">
-        <v>220</v>
-      </c>
       <c r="E162">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F162">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G162">
         <v>3</v>
       </c>
       <c r="H162">
+        <v>3</v>
+      </c>
+      <c r="I162">
         <v>23410</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>519</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D163">
-        <v>220</v>
-      </c>
       <c r="E163">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F163">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G163">
         <v>3</v>
       </c>
       <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
         <v>22273</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>519</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D164">
-        <v>220</v>
-      </c>
       <c r="E164">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F164">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G164">
         <v>3</v>
       </c>
       <c r="H164">
+        <v>3</v>
+      </c>
+      <c r="I164">
         <v>22274</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>519</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D165">
-        <v>220</v>
-      </c>
       <c r="E165">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F165">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G165">
         <v>6</v>
       </c>
       <c r="H165">
+        <v>6</v>
+      </c>
+      <c r="I165">
         <v>7297</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>519</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D166">
-        <v>220</v>
-      </c>
       <c r="E166">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F166">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G166">
         <v>3</v>
       </c>
       <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166">
         <v>4461</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>519</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D167">
-        <v>220</v>
-      </c>
       <c r="E167">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F167">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G167">
         <v>3</v>
       </c>
       <c r="H167">
+        <v>3</v>
+      </c>
+      <c r="I167">
         <v>6009</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>519</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D168">
-        <v>220</v>
-      </c>
       <c r="E168">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F168">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G168">
         <v>6</v>
       </c>
       <c r="H168">
+        <v>6</v>
+      </c>
+      <c r="I168">
         <v>6008</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>519</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D169">
-        <v>220</v>
-      </c>
       <c r="E169">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F169">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G169">
         <v>6</v>
       </c>
       <c r="H169">
+        <v>6</v>
+      </c>
+      <c r="I169">
         <v>6007</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>519</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D170">
-        <v>220</v>
-      </c>
       <c r="E170">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F170">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G170">
         <v>6</v>
       </c>
       <c r="H170">
+        <v>6</v>
+      </c>
+      <c r="I170">
         <v>6010</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>519</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D171">
-        <v>220</v>
-      </c>
       <c r="E171">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F171">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G171">
         <v>6</v>
       </c>
       <c r="H171">
+        <v>6</v>
+      </c>
+      <c r="I171">
         <v>6023</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>519</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D172">
-        <v>220</v>
-      </c>
       <c r="E172">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F172">
+        <v>520</v>
+      </c>
+      <c r="G172">
         <v>12</v>
       </c>
-      <c r="G172">
-        <v>6</v>
-      </c>
       <c r="H172">
+        <v>6</v>
+      </c>
+      <c r="I172">
         <v>1449</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>519</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D173">
-        <v>220</v>
-      </c>
       <c r="E173">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F173">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G173">
         <v>3</v>
       </c>
       <c r="H173">
+        <v>3</v>
+      </c>
+      <c r="I173">
         <v>18342</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>519</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D174">
-        <v>220</v>
-      </c>
       <c r="E174">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G174">
         <v>3</v>
       </c>
       <c r="H174">
+        <v>3</v>
+      </c>
+      <c r="I174">
         <v>19969</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>519</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D175">
-        <v>220</v>
-      </c>
       <c r="E175">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F175">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G175">
         <v>6</v>
       </c>
       <c r="H175">
+        <v>6</v>
+      </c>
+      <c r="I175">
         <v>14994</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>519</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D176">
-        <v>220</v>
-      </c>
       <c r="E176">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F176">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G176">
         <v>3</v>
       </c>
       <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
         <v>11207</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>519</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D177">
-        <v>220</v>
-      </c>
       <c r="E177">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F177">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G177">
         <v>3</v>
       </c>
       <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
         <v>4001</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>519</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D178">
-        <v>220</v>
-      </c>
       <c r="E178">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F178">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G178">
         <v>6</v>
       </c>
       <c r="H178">
+        <v>6</v>
+      </c>
+      <c r="I178">
         <v>4004</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>519</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D179">
-        <v>220</v>
-      </c>
       <c r="E179">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F179">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G179">
         <v>6</v>
       </c>
       <c r="H179">
+        <v>6</v>
+      </c>
+      <c r="I179">
         <v>4014</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>519</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D180">
-        <v>220</v>
-      </c>
       <c r="E180">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F180">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G180">
         <v>6</v>
       </c>
       <c r="H180">
+        <v>6</v>
+      </c>
+      <c r="I180">
         <v>11193</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>519</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D181">
-        <v>220</v>
-      </c>
       <c r="E181">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F181">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G181">
         <v>6</v>
       </c>
       <c r="H181">
+        <v>6</v>
+      </c>
+      <c r="I181">
         <v>6084</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>519</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D182">
-        <v>220</v>
-      </c>
       <c r="E182">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F182">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G182">
         <v>6</v>
       </c>
       <c r="H182">
+        <v>6</v>
+      </c>
+      <c r="I182">
         <v>5476</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>519</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D183">
-        <v>220</v>
-      </c>
       <c r="E183">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F183">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G183">
         <v>3</v>
       </c>
       <c r="H183">
+        <v>3</v>
+      </c>
+      <c r="I183">
         <v>5475</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>519</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D184">
-        <v>220</v>
-      </c>
       <c r="E184">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F184">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="G184">
         <v>3</v>
       </c>
       <c r="H184">
+        <v>3</v>
+      </c>
+      <c r="I184">
         <v>18542</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>519</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D185">
-        <v>220</v>
-      </c>
       <c r="E185">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F185">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G185">
         <v>6</v>
       </c>
       <c r="H185">
+        <v>6</v>
+      </c>
+      <c r="I185">
         <v>5066</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>519</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D186">
-        <v>220</v>
-      </c>
       <c r="E186">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F186">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G186">
         <v>6</v>
       </c>
       <c r="H186">
+        <v>6</v>
+      </c>
+      <c r="I186">
         <v>12011</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>519</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D187">
-        <v>220</v>
-      </c>
       <c r="E187">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="F187">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="G187">
         <v>6</v>
       </c>
       <c r="H187">
+        <v>6</v>
+      </c>
+      <c r="I187">
         <v>4874</v>
       </c>
     </row>
